--- a/Billionaires Dashboard.xlsx
+++ b/Billionaires Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexeydavydov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE59276D-525B-0C46-8AB1-FA8D2E6EAB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5DEA6B-66BA-544F-BBFB-FEA07F2D557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{DBA30196-09A8-4EF7-A374-3801B5A719A9}"/>
   </bookViews>
@@ -19,11 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="age">#REF!</definedName>
-    <definedName name="avgAge">Analysis!$A$10</definedName>
-    <definedName name="avgFinalWorth">Analysis!$A$7</definedName>
+    <definedName name="avgAge">Analysis!$B$10</definedName>
+    <definedName name="avgFinalWorth">Analysis!$B$7</definedName>
     <definedName name="count">#REF!</definedName>
-    <definedName name="finalworthAvg">Analysis!$A$7</definedName>
-    <definedName name="nameCount">Analysis!$A$4</definedName>
+    <definedName name="finalworthAvg">Analysis!$B$7</definedName>
+    <definedName name="nameCount">Analysis!$B$4</definedName>
     <definedName name="Slicer_Gender">#N/A</definedName>
     <definedName name="Slicer_Region">#N/A</definedName>
     <definedName name="Slicer_Self_Made">#N/A</definedName>
@@ -5973,7 +5973,67 @@
     <cellStyle name="Total 2" xfId="18" xr:uid="{96A0F087-56CF-4BEF-B3E2-A55BF62CA715}"/>
     <cellStyle name="Warning Text 2" xfId="15" xr:uid="{F033C208-1071-4300-AED5-AD9CAEC06E84}"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="67">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -6134,8 +6194,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Billionaires" pivot="0" table="0" count="10" xr9:uid="{29662A76-64B9-4385-8959-F8B42F8A73FB}">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6599,7 +6659,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$12</c:f>
+              <c:f>Analysis!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6620,7 +6680,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$13:$A$37</c:f>
+              <c:f>Analysis!$B$13:$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -6703,7 +6763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$13:$B$37</c:f>
+              <c:f>Analysis!$C$13:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -6811,7 +6871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$C$12</c:f>
+              <c:f>Analysis!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6834,7 +6894,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$13:$A$37</c:f>
+              <c:f>Analysis!$B$13:$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -6917,7 +6977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$C$13:$C$37</c:f>
+              <c:f>Analysis!$D$13:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -7432,7 +7492,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$40</c:f>
+              <c:f>Analysis!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7453,7 +7513,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$A$41:$A$58</c:f>
+              <c:f>Analysis!$B$41:$B$58</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -7515,7 +7575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$41:$B$58</c:f>
+              <c:f>Analysis!$C$41:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
@@ -8852,16 +8912,1003 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1412240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9949E00B-D4F5-2A44-9C3F-25615D97C7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="1485900"/>
+          <a:ext cx="1234440" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1399540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BCB6D4-665D-A346-BB46-037273622F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="2292350"/>
+          <a:ext cx="1234440" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1399540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114FC2D8-B684-C344-A4FF-18D1DC1B9426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="3098800"/>
+          <a:ext cx="1234440" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="958468" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746C3017-1814-B541-BA96-A9408BC5A965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="1638300"/>
+          <a:ext cx="958468" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774186" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BF006F-A080-7145-9AFA-621C2D59DADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3238500"/>
+          <a:ext cx="774186" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="746358" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66845A24-688A-AE47-984F-602992101F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="2451100"/>
+          <a:ext cx="746358" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Earth globe: Africa and Europe with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EC4996-B305-2E4D-B1F7-A96157B5D4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="101600"/>
+          <a:ext cx="1308100" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1412240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF937B9-864D-BE46-AF59-FC3FE61BEB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="1562100"/>
+          <a:ext cx="1234440" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1399540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8C1878-7DF0-7F4D-8C6D-351F5EBE37CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="2432050"/>
+          <a:ext cx="1234440" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1399540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4CA81E-35ED-E641-8554-0225AA420C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="3289300"/>
+          <a:ext cx="1234440" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="958468" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630C5E7E-5F23-7D42-B7A7-A07BAF72A901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="1727200"/>
+          <a:ext cx="958468" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Dashboard</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774186" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60E7E07-D9C0-C84E-87EC-9DB75EB5F849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3441700"/>
+          <a:ext cx="774186" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="746358" cy="389337"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0433237-9EDB-8F4B-9169-80FD9D7F1806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="2590800"/>
+          <a:ext cx="746358" cy="389337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Semibold" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72474</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1500232</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Earth globe: Africa and Europe with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200297D5-EB26-8543-B4AF-90EAC84D0F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72474" y="25400"/>
+          <a:ext cx="1427758" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>603326</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>116538</xdr:rowOff>
+      <xdr:colOff>428701</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>322361</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>140283</xdr:rowOff>
+      <xdr:colOff>147736</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>187908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8876,8 +9923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15518770" y="511649"/>
-          <a:ext cx="2216702" cy="1209078"/>
+          <a:off x="15224201" y="354663"/>
+          <a:ext cx="2195535" cy="1166745"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8932,15 +9979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>603326</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45982</xdr:rowOff>
+      <xdr:colOff>428701</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>322361</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69727</xdr:rowOff>
+      <xdr:colOff>147736</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8955,8 +10002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15518770" y="2021538"/>
-          <a:ext cx="2216702" cy="1209078"/>
+          <a:off x="15224201" y="1836330"/>
+          <a:ext cx="2195535" cy="1166745"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9011,15 +10058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>603326</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31871</xdr:rowOff>
+      <xdr:colOff>428701</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>322361</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55616</xdr:rowOff>
+      <xdr:colOff>147736</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9034,8 +10081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15518770" y="3587871"/>
-          <a:ext cx="2216702" cy="1209078"/>
+          <a:off x="15224201" y="3317996"/>
+          <a:ext cx="2195535" cy="1166745"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9096,7 +10143,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -9113,8 +10160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1587500" y="101600"/>
-          <a:ext cx="9144000" cy="1371600"/>
+          <a:off x="1778000" y="101600"/>
+          <a:ext cx="9048750" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9248,13 +10295,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>57563</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>324263</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -9271,8 +10318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946650" y="1574800"/>
-          <a:ext cx="2743200" cy="1371600"/>
+          <a:off x="4939641" y="1634177"/>
+          <a:ext cx="2740726" cy="1423554"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9498,6 +10545,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31897D0-885A-CB43-99EF-6DCAC869BA78}"/>
@@ -9577,6 +10625,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D88C5CF-401C-AC4F-8262-726E8A1AC90E}"/>
@@ -9801,11 +10850,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>378438</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:colOff>11549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107246</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8756051" cy="1054100"/>
+    <xdr:ext cx="8756051" cy="1021277"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13">
@@ -9819,8 +10868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1965938" y="241301"/>
-          <a:ext cx="8756051" cy="1054100"/>
+          <a:off x="1606105" y="107246"/>
+          <a:ext cx="8756051" cy="1021277"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9969,9 +11018,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311650</xdr:colOff>
+      <xdr:colOff>341352</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>103173</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2203039" cy="537840"/>
     <xdr:sp macro="" textlink="">
@@ -9987,7 +11036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5201150" y="1600200"/>
+          <a:off x="5223430" y="1686550"/>
           <a:ext cx="2203039" cy="537840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10172,6 +11221,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB06F29-34E5-14B6-5D8B-27C0BE515148}"/>
@@ -10237,6 +11287,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="TextBox 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AB4777-D191-92D0-8A86-44B2376D6F51}"/>
@@ -10294,15 +11345,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>90311</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1467555</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10318,13 +11369,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10334,8 +11385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="228600"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="90311" y="108655"/>
+          <a:ext cx="1377244" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10346,10 +11397,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>122887</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>697960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389611" cy="884345"/>
     <xdr:sp macro="" textlink="avgFinalWorth">
@@ -10365,7 +11416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5863287" y="2061633"/>
+          <a:off x="5622738" y="2023625"/>
           <a:ext cx="1389611" cy="884345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10418,9 +11469,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>389587</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>309319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76291</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="877356" cy="884345"/>
     <xdr:sp macro="" textlink="nameCount">
@@ -10436,7 +11487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2802587" y="2108200"/>
+          <a:off x="2736430" y="2051847"/>
           <a:ext cx="877356" cy="884345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10489,9 +11540,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>745187</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>495585</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76291</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1210139" cy="884345"/>
     <xdr:sp macro="" textlink="avgAge">
@@ -10507,7 +11558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8936687" y="2108200"/>
+          <a:off x="8750585" y="2051847"/>
           <a:ext cx="1210139" cy="884345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10589,7 +11640,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10627,7 +11678,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10660,13 +11711,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10689,15 +11740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>776111</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>56446</xdr:rowOff>
+      <xdr:colOff>601486</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>107244</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>758119</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>183446</xdr:rowOff>
+      <xdr:rowOff>40571</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10733,8 +11784,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15691555" y="649113"/>
-              <a:ext cx="1828800" cy="917222"/>
+              <a:off x="15396986" y="485071"/>
+              <a:ext cx="1807633" cy="889000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10767,15 +11818,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>821267</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:colOff>630148</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>786781</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>183444</xdr:rowOff>
+      <xdr:rowOff>67544</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10811,8 +11862,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15736711" y="2274712"/>
-              <a:ext cx="1828800" cy="674510"/>
+              <a:off x="15425648" y="2088623"/>
+              <a:ext cx="1807633" cy="645921"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10844,16 +11895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5645</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104423</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>656520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>820209</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>184185</xdr:rowOff>
+      <xdr:rowOff>41310</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10889,8 +11940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15753645" y="3857979"/>
-              <a:ext cx="1828800" cy="672428"/>
+              <a:off x="15452020" y="3581048"/>
+              <a:ext cx="1814689" cy="651262"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10920,6 +11971,98 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1312516</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186523</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3890467" cy="1021277"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2C6436-8F2B-C242-BD28-166976806DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1312516" y="779190"/>
+          <a:ext cx="3890467" cy="1021277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Adelle Sans Devanagari Extrabol" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="Adelle Sans Devanagari Extrabol" panose="02000503000000020004" pitchFamily="2" charset="-78"/>
+            </a:rPr>
+            <a:t>Figures in millions USD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23395,7 +24538,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{230316F1-EF87-6444-BF10-A3E6FBA14D67}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A40:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B40:C58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -23538,7 +24681,7 @@
     <dataField name="Sum of Finalworth" fld="12" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="41">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23567,7 +24710,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5772B170-4C34-D04B-B931-CD4EAD243880}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A12:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B12:D37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -24197,10 +25340,10 @@
     <dataField name="Sum of Age" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="43">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="62">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -24253,7 +25396,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBBAA826-2C5F-574F-9447-9BC67DB90361}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:A10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <location ref="B9:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24309,7 +25452,7 @@
     <dataField name="Average of Age" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="44">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24327,7 +25470,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E1B245D-EB0C-8F43-827C-7A0F8DFB0EBE}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <location ref="B6:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -24383,7 +25526,7 @@
     <dataField name="Average of Finalworth" fld="12" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="40">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24401,7 +25544,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A10ABAB-7B60-1549-BDE1-9821EB2F5D9C}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <location ref="B3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -24835,13 +25978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491A2E0-C9E9-4B98-B68F-94E8879ECE7C}">
-  <dimension ref="B2:AW477"/>
+  <dimension ref="A2:AW477"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
@@ -58716,494 +59859,495 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F8876-8746-2649-8165-AFDE7E94E4F3}">
-  <dimension ref="A3:C58"/>
+  <dimension ref="A3:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>14821.894736842105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
         <v>67.237894736842108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>1768</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1764</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11">
+      <c r="C13" s="11">
         <v>211000</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11">
+      <c r="C14" s="11">
         <v>180000</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="C15" s="11">
         <v>114000</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11">
+      <c r="C16" s="11">
         <v>107000</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11">
+      <c r="C17" s="11">
         <v>106000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="9">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11">
+      <c r="C18" s="11">
         <v>104000</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="11">
+      <c r="C19" s="11">
         <v>94500</v>
       </c>
-      <c r="C19" s="9">
+      <c r="D19" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
         <v>1726</v>
       </c>
-      <c r="B20" s="11">
+      <c r="C20" s="11">
         <v>93000</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11">
+      <c r="C21" s="11">
         <v>83400</v>
       </c>
-      <c r="C21" s="9">
+      <c r="D21" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="11">
+      <c r="C22" s="11">
         <v>80700</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="11">
+      <c r="C23" s="11">
         <v>80500</v>
       </c>
-      <c r="C23" s="9">
+      <c r="D23" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="11">
+      <c r="C24" s="11">
         <v>79200</v>
       </c>
-      <c r="C24" s="9">
+      <c r="D24" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="11">
+      <c r="C25" s="11">
         <v>77300</v>
       </c>
-      <c r="C25" s="9">
+      <c r="D25" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="11">
+      <c r="C26" s="11">
         <v>76000</v>
       </c>
-      <c r="C26" s="9">
+      <c r="D26" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="11">
+      <c r="C27" s="11">
         <v>68000</v>
       </c>
-      <c r="C27" s="9">
+      <c r="D27" s="9">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="11">
+      <c r="C28" s="11">
         <v>64400</v>
       </c>
-      <c r="C28" s="9">
+      <c r="D28" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
         <v>1727</v>
       </c>
-      <c r="B29" s="11">
+      <c r="C29" s="11">
         <v>59000</v>
       </c>
-      <c r="C29" s="9">
+      <c r="D29" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
         <v>1728</v>
       </c>
-      <c r="B30" s="11">
+      <c r="C30" s="11">
         <v>59000</v>
       </c>
-      <c r="C30" s="9">
+      <c r="D30" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="11">
+      <c r="C31" s="11">
         <v>58800</v>
       </c>
-      <c r="C31" s="9">
+      <c r="D31" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
         <v>1729</v>
       </c>
-      <c r="B32" s="11">
+      <c r="C32" s="11">
         <v>57600</v>
       </c>
-      <c r="C32" s="9">
+      <c r="D32" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="11">
+      <c r="C33" s="11">
         <v>56700</v>
       </c>
-      <c r="C33" s="9">
+      <c r="D33" s="9">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="11">
+      <c r="C34" s="11">
         <v>54400</v>
       </c>
-      <c r="C34" s="9">
+      <c r="D34" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="11">
+      <c r="C35" s="11">
         <v>50100</v>
       </c>
-      <c r="C35" s="9">
+      <c r="D35" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="11">
+      <c r="C36" s="11">
         <v>47200</v>
       </c>
-      <c r="C36" s="9">
+      <c r="D36" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="10" t="s">
         <v>1730</v>
       </c>
-      <c r="B37" s="11">
+      <c r="C37" s="11">
         <v>45100</v>
       </c>
-      <c r="C37" s="9">
+      <c r="D37" s="9">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
         <v>1768</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
         <v>1760</v>
       </c>
-      <c r="B41" s="11">
+      <c r="C41" s="11">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B42" s="11">
+      <c r="C42" s="11">
         <v>50700</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="11">
+      <c r="C43" s="11">
         <v>62600</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="11">
+      <c r="C44" s="11">
         <v>68500</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="11">
+      <c r="C45" s="11">
         <v>129900</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="11">
+      <c r="C46" s="11">
         <v>163900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B47" s="11">
+      <c r="C47" s="11">
         <v>194600</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="11">
+      <c r="C48" s="11">
         <v>240900</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="11">
+      <c r="C49" s="11">
         <v>263500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B50" s="11">
+      <c r="C50" s="11">
         <v>294600</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="11">
+      <c r="C51" s="11">
         <v>315300</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="11">
+      <c r="C52" s="11">
         <v>397200</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="11">
+      <c r="C53" s="11">
         <v>423400</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="11">
+      <c r="C54" s="11">
         <v>492400</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="11">
+      <c r="C55" s="11">
         <v>567800</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="11">
+      <c r="C56" s="11">
         <v>882000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="11">
+      <c r="C57" s="11">
         <v>1160200</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="11">
+      <c r="C58" s="11">
         <v>1299800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -59211,8 +60355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B00A8CB-17B6-A342-8484-8AFBCD7D1662}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
